--- a/440/ADDS Names Script.xlsx
+++ b/440/ADDS Names Script.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drexle735.CSNTPROD\Documents\GitHub\Morrisville2023\440\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3265056A-FAF4-4AAD-BAE1-87D96013F945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E3D66A3-8F1F-46D5-8304-55CF23A1D260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="207">
-  <si>
-    <t>Column1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="206">
   <si>
     <t>Ariel</t>
   </si>
@@ -656,7 +654,7 @@
     <t>440 Student</t>
   </si>
   <si>
-    <t>OU= DC= DC=local</t>
+    <t>OU=Users, DC=.local</t>
   </si>
 </sst>
 </file>
@@ -712,24 +710,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CD8C9A9B-17D6-46DE-A7AA-565FD2C36B05}" name="Table4" displayName="Table4" ref="A1:H1048576" totalsRowShown="0">
-  <autoFilter ref="A1:H1048576" xr:uid="{CD8C9A9B-17D6-46DE-A7AA-565FD2C36B05}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7E46BBA4-D9E4-412D-ACB2-600058B78176}" name="First Name"/>
-    <tableColumn id="6" xr3:uid="{E6D272C7-9ACD-4317-AC75-7A4A404227D0}" name=" Last Name"/>
-    <tableColumn id="7" xr3:uid="{99877880-58CB-4CBB-BB0A-83DFBB458A78}" name="Job Title"/>
-    <tableColumn id="8" xr3:uid="{15483DB9-04F4-4CA7-ABBD-CABFD55AC84F}" name="Employee ID"/>
-    <tableColumn id="2" xr3:uid="{A4DAE1FF-AC5E-48BD-A2A7-32ABC1BF1B2E}" name="Description"/>
-    <tableColumn id="9" xr3:uid="{AED8FD78-D5B8-4CDD-A9C7-1ADC7FB458EB}" name="Organizational Unit"/>
-    <tableColumn id="10" xr3:uid="{A81CFC27-4124-4F31-B0DF-8B6F68CAEDD6}" name="Enabled"/>
-    <tableColumn id="3" xr3:uid="{434C7FB0-171C-431A-9C6C-88898D27FE45}" name="Password"/>
-    <tableColumn id="4" xr3:uid="{F1361107-8E16-4D22-8091-1FB39BA23AFE}" name="Column2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -997,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1010,2438 +990,2732 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" t="s">
         <v>196</v>
       </c>
-      <c r="B1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>202</v>
       </c>
-      <c r="E1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>203</v>
       </c>
-      <c r="G1" t="s">
-        <v>204</v>
-      </c>
       <c r="H1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3">
         <f>D2+1</f>
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F3" t="s">
+        <v>205</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D67" si="0">D3+1</f>
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F4" t="s">
+        <v>205</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F5" t="s">
+        <v>205</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F6" t="s">
+        <v>205</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F7" t="s">
+        <v>205</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F8" t="s">
+        <v>205</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F9" t="s">
+        <v>205</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F10" t="s">
+        <v>205</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F11" t="s">
+        <v>205</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F12" t="s">
+        <v>205</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F13" t="s">
+        <v>205</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F14" t="s">
+        <v>205</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F15" t="s">
+        <v>205</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
       <c r="C16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F16" t="s">
+        <v>205</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F17" t="s">
+        <v>205</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
       <c r="C18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F18" t="s">
+        <v>205</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F19" t="s">
+        <v>205</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F20" t="s">
+        <v>205</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
       <c r="C21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
       <c r="C22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F22" t="s">
+        <v>205</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
       <c r="C23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
       <c r="C24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F24" t="s">
+        <v>205</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
       <c r="C26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F28" t="s">
+        <v>205</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
       <c r="C29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F29" t="s">
+        <v>205</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
       <c r="C30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F30" t="s">
+        <v>205</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
         <v>58</v>
       </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F31" t="s">
+        <v>205</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
         <v>60</v>
       </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
       <c r="C32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F32" t="s">
+        <v>205</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
       <c r="C33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F33" t="s">
+        <v>205</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
       <c r="C34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F34" t="s">
+        <v>205</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
         <v>66</v>
       </c>
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F35" t="s">
+        <v>205</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
         <v>68</v>
       </c>
-      <c r="B36" t="s">
-        <v>69</v>
-      </c>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F36" t="s">
+        <v>205</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
         <v>70</v>
       </c>
-      <c r="B37" t="s">
-        <v>71</v>
-      </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F37" t="s">
+        <v>205</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
       <c r="C38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F38" t="s">
+        <v>205</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F39" t="s">
+        <v>205</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
         <v>76</v>
       </c>
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
       <c r="C40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F40" t="s">
+        <v>205</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
         <v>78</v>
       </c>
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F41" t="s">
+        <v>205</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
         <v>80</v>
       </c>
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
       <c r="C42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F42" t="s">
+        <v>205</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
         <v>82</v>
       </c>
-      <c r="B43" t="s">
-        <v>83</v>
-      </c>
       <c r="C43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F43" t="s">
+        <v>205</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
         <v>84</v>
       </c>
-      <c r="B44" t="s">
-        <v>85</v>
-      </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F44" t="s">
+        <v>205</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
         <v>86</v>
       </c>
-      <c r="B45" t="s">
-        <v>87</v>
-      </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F45" t="s">
+        <v>205</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
         <v>88</v>
       </c>
-      <c r="B46" t="s">
-        <v>89</v>
-      </c>
       <c r="C46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F46" t="s">
+        <v>205</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
         <v>90</v>
       </c>
-      <c r="B47" t="s">
-        <v>91</v>
-      </c>
       <c r="C47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F47" t="s">
+        <v>205</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
         <v>92</v>
       </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
       <c r="C48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F48" t="s">
+        <v>205</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
         <v>94</v>
       </c>
-      <c r="B49" t="s">
-        <v>95</v>
-      </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F49" t="s">
+        <v>205</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
         <v>96</v>
       </c>
-      <c r="B50" t="s">
-        <v>97</v>
-      </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F50" t="s">
+        <v>205</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
         <v>98</v>
       </c>
-      <c r="B51" t="s">
-        <v>99</v>
-      </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F51" t="s">
+        <v>205</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
         <v>100</v>
       </c>
-      <c r="B52" t="s">
-        <v>101</v>
-      </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F52" t="s">
+        <v>205</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
         <v>102</v>
       </c>
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F53" t="s">
+        <v>205</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" t="s">
         <v>104</v>
       </c>
-      <c r="B54" t="s">
-        <v>105</v>
-      </c>
       <c r="C54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F54" t="s">
+        <v>205</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
         <v>106</v>
       </c>
-      <c r="B55" t="s">
-        <v>107</v>
-      </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F55" t="s">
+        <v>205</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
         <v>108</v>
       </c>
-      <c r="B56" t="s">
-        <v>109</v>
-      </c>
       <c r="C56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F56" t="s">
+        <v>205</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
         <v>110</v>
       </c>
-      <c r="B57" t="s">
-        <v>111</v>
-      </c>
       <c r="C57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F57" t="s">
+        <v>205</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
         <v>112</v>
       </c>
-      <c r="B58" t="s">
-        <v>113</v>
-      </c>
       <c r="C58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F58" t="s">
+        <v>205</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
         <v>114</v>
       </c>
-      <c r="B59" t="s">
-        <v>115</v>
-      </c>
       <c r="C59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F59" t="s">
+        <v>205</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" t="s">
         <v>116</v>
       </c>
-      <c r="B60" t="s">
-        <v>117</v>
-      </c>
       <c r="C60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F60" t="s">
+        <v>205</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="s">
         <v>118</v>
       </c>
-      <c r="B61" t="s">
-        <v>119</v>
-      </c>
       <c r="C61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F61" t="s">
+        <v>205</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
         <v>120</v>
       </c>
-      <c r="B62" t="s">
-        <v>121</v>
-      </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F62" t="s">
+        <v>205</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
         <v>122</v>
       </c>
-      <c r="B63" t="s">
-        <v>123</v>
-      </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F63" t="s">
+        <v>205</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
         <v>124</v>
       </c>
-      <c r="B64" t="s">
-        <v>125</v>
-      </c>
       <c r="C64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F64" t="s">
+        <v>205</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
         <v>126</v>
       </c>
-      <c r="B65" t="s">
-        <v>127</v>
-      </c>
       <c r="C65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F65" t="s">
+        <v>205</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" t="s">
         <v>128</v>
       </c>
-      <c r="B66" t="s">
-        <v>129</v>
-      </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F66" t="s">
+        <v>205</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" t="s">
         <v>130</v>
       </c>
-      <c r="B67" t="s">
-        <v>131</v>
-      </c>
       <c r="C67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D67">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F67" t="s">
+        <v>205</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" t="s">
         <v>132</v>
       </c>
-      <c r="B68" t="s">
-        <v>133</v>
-      </c>
       <c r="C68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68">
         <f t="shared" ref="D68:D101" si="1">D67+1</f>
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F68" t="s">
+        <v>205</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
         <v>134</v>
       </c>
-      <c r="B69" t="s">
-        <v>135</v>
-      </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F69" t="s">
+        <v>205</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F70" t="s">
+        <v>205</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" t="s">
         <v>137</v>
       </c>
-      <c r="B71" t="s">
-        <v>138</v>
-      </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F71" t="s">
+        <v>205</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" t="s">
         <v>139</v>
       </c>
-      <c r="B72" t="s">
-        <v>140</v>
-      </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F72" t="s">
+        <v>205</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D73">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F73" t="s">
+        <v>205</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
         <v>142</v>
       </c>
-      <c r="B74" t="s">
-        <v>143</v>
-      </c>
       <c r="C74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D74">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F74" t="s">
+        <v>205</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" t="s">
         <v>144</v>
       </c>
-      <c r="B75" t="s">
-        <v>145</v>
-      </c>
       <c r="C75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D75">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F75" t="s">
+        <v>205</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" t="s">
         <v>146</v>
       </c>
-      <c r="B76" t="s">
-        <v>147</v>
-      </c>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D76">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F76" t="s">
+        <v>205</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" t="s">
         <v>148</v>
       </c>
-      <c r="B77" t="s">
-        <v>149</v>
-      </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D77">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F77" t="s">
+        <v>205</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" t="s">
         <v>150</v>
       </c>
-      <c r="B78" t="s">
-        <v>151</v>
-      </c>
       <c r="C78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D78">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F78" t="s">
+        <v>205</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" t="s">
         <v>152</v>
       </c>
-      <c r="B79" t="s">
-        <v>153</v>
-      </c>
       <c r="C79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D79">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F79" t="s">
+        <v>205</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D80">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F80" t="s">
+        <v>205</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" t="s">
         <v>155</v>
       </c>
-      <c r="B81" t="s">
-        <v>156</v>
-      </c>
       <c r="C81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D81">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F81" t="s">
+        <v>205</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" t="s">
         <v>157</v>
       </c>
-      <c r="B82" t="s">
-        <v>158</v>
-      </c>
       <c r="C82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D82">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F82" t="s">
+        <v>205</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" t="s">
         <v>159</v>
       </c>
-      <c r="B83" t="s">
-        <v>160</v>
-      </c>
       <c r="C83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D83">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F83" t="s">
+        <v>205</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
         <v>161</v>
       </c>
-      <c r="B84" t="s">
-        <v>162</v>
-      </c>
       <c r="C84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D84">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F84" t="s">
+        <v>205</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
         <v>163</v>
       </c>
-      <c r="B85" t="s">
-        <v>164</v>
-      </c>
       <c r="C85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D85">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F85" t="s">
+        <v>205</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D86">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F86" t="s">
+        <v>205</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" t="s">
         <v>166</v>
       </c>
-      <c r="B87" t="s">
-        <v>167</v>
-      </c>
       <c r="C87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D87">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F87" t="s">
+        <v>205</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" t="s">
         <v>168</v>
       </c>
-      <c r="B88" t="s">
-        <v>169</v>
-      </c>
       <c r="C88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D88">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F88" t="s">
+        <v>205</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" t="s">
         <v>170</v>
       </c>
-      <c r="B89" t="s">
-        <v>171</v>
-      </c>
       <c r="C89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D89">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F89" t="s">
+        <v>205</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" t="s">
         <v>172</v>
       </c>
-      <c r="B90" t="s">
-        <v>173</v>
-      </c>
       <c r="C90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D90">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F90" t="s">
+        <v>205</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" t="s">
         <v>174</v>
       </c>
-      <c r="B91" t="s">
-        <v>175</v>
-      </c>
       <c r="C91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D91">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F91" t="s">
+        <v>205</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" t="s">
         <v>176</v>
       </c>
-      <c r="B92" t="s">
-        <v>177</v>
-      </c>
       <c r="C92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D92">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F92" t="s">
+        <v>205</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" t="s">
         <v>178</v>
       </c>
-      <c r="B93" t="s">
-        <v>179</v>
-      </c>
       <c r="C93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D93">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F93" t="s">
+        <v>205</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" t="s">
         <v>180</v>
       </c>
-      <c r="B94" t="s">
-        <v>181</v>
-      </c>
       <c r="C94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D94">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F94" t="s">
+        <v>205</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D95">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F95" t="s">
+        <v>205</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B96" t="s">
         <v>183</v>
       </c>
-      <c r="B96" t="s">
-        <v>184</v>
-      </c>
       <c r="C96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D96">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F96" t="s">
+        <v>205</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" t="s">
         <v>185</v>
       </c>
-      <c r="B97" t="s">
-        <v>186</v>
-      </c>
       <c r="C97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D97">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F97" t="s">
+        <v>205</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B98" t="s">
         <v>187</v>
       </c>
-      <c r="B98" t="s">
-        <v>188</v>
-      </c>
       <c r="C98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D98">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F98" t="s">
+        <v>205</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B99" t="s">
         <v>189</v>
       </c>
-      <c r="B99" t="s">
-        <v>190</v>
-      </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D99">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F99" t="s">
+        <v>205</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100" t="s">
         <v>191</v>
       </c>
-      <c r="B100" t="s">
-        <v>192</v>
-      </c>
       <c r="C100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D100">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F100" t="s">
+        <v>205</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" t="s">
         <v>193</v>
       </c>
-      <c r="B101" t="s">
-        <v>194</v>
-      </c>
       <c r="C101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D101">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F101" t="s">
+        <v>205</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 

--- a/440/ADDS Names Script.xlsx
+++ b/440/ADDS Names Script.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drexle735.CSNTPROD\Documents\GitHub\Morrisville2023\440\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E3D66A3-8F1F-46D5-8304-55CF23A1D260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966A6F2C-0C5C-46A1-8F34-4FC3068A65EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -636,9 +635,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>root</t>
-  </si>
-  <si>
     <t>Job Title</t>
   </si>
   <si>
@@ -654,7 +650,10 @@
     <t>440 Student</t>
   </si>
   <si>
-    <t>OU=Users, DC=.local</t>
+    <t>DC= CITA440</t>
+  </si>
+  <si>
+    <t>!P@ssw0rd.cita440</t>
   </si>
 </sst>
 </file>
@@ -977,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,19 +995,19 @@
         <v>194</v>
       </c>
       <c r="C1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" t="s">
         <v>200</v>
-      </c>
-      <c r="D1" t="s">
-        <v>201</v>
       </c>
       <c r="E1" t="s">
         <v>196</v>
       </c>
       <c r="F1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" t="s">
         <v>202</v>
-      </c>
-      <c r="G1" t="s">
-        <v>203</v>
       </c>
       <c r="H1" t="s">
         <v>198</v>
@@ -1022,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1031,13 +1030,13 @@
         <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1048,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3">
         <f>D2+1</f>
@@ -1058,13 +1057,13 @@
         <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1075,7 +1074,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D67" si="0">D3+1</f>
@@ -1085,13 +1084,13 @@
         <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1102,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -1112,13 +1111,13 @@
         <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1129,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -1139,13 +1138,13 @@
         <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1156,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -1166,13 +1165,13 @@
         <v>197</v>
       </c>
       <c r="F7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1183,7 +1182,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -1193,13 +1192,13 @@
         <v>197</v>
       </c>
       <c r="F8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1210,7 +1209,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -1220,13 +1219,13 @@
         <v>197</v>
       </c>
       <c r="F9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1237,7 +1236,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -1247,13 +1246,13 @@
         <v>197</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1264,7 +1263,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -1274,13 +1273,13 @@
         <v>197</v>
       </c>
       <c r="F11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1291,7 +1290,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -1301,13 +1300,13 @@
         <v>197</v>
       </c>
       <c r="F12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1318,7 +1317,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -1328,13 +1327,13 @@
         <v>197</v>
       </c>
       <c r="F13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1345,7 +1344,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -1355,13 +1354,13 @@
         <v>197</v>
       </c>
       <c r="F14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1372,7 +1371,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -1382,13 +1381,13 @@
         <v>197</v>
       </c>
       <c r="F15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1399,7 +1398,7 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -1409,13 +1408,13 @@
         <v>197</v>
       </c>
       <c r="F16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1426,7 +1425,7 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
@@ -1436,13 +1435,13 @@
         <v>197</v>
       </c>
       <c r="F17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1453,7 +1452,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -1463,13 +1462,13 @@
         <v>197</v>
       </c>
       <c r="F18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1480,7 +1479,7 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -1490,13 +1489,13 @@
         <v>197</v>
       </c>
       <c r="F19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1507,7 +1506,7 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -1517,13 +1516,13 @@
         <v>197</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1534,7 +1533,7 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
@@ -1544,13 +1543,13 @@
         <v>197</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1561,7 +1560,7 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
@@ -1571,13 +1570,13 @@
         <v>197</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1588,7 +1587,7 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
@@ -1598,13 +1597,13 @@
         <v>197</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1615,7 +1614,7 @@
         <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
@@ -1625,13 +1624,13 @@
         <v>197</v>
       </c>
       <c r="F24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1642,7 +1641,7 @@
         <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
@@ -1652,13 +1651,13 @@
         <v>197</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1669,7 +1668,7 @@
         <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
@@ -1679,13 +1678,13 @@
         <v>197</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1696,7 +1695,7 @@
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
@@ -1706,13 +1705,13 @@
         <v>197</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1723,7 +1722,7 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
@@ -1733,13 +1732,13 @@
         <v>197</v>
       </c>
       <c r="F28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1750,7 +1749,7 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
@@ -1760,13 +1759,13 @@
         <v>197</v>
       </c>
       <c r="F29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1777,7 +1776,7 @@
         <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
@@ -1787,13 +1786,13 @@
         <v>197</v>
       </c>
       <c r="F30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1804,7 +1803,7 @@
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
@@ -1814,13 +1813,13 @@
         <v>197</v>
       </c>
       <c r="F31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1831,7 +1830,7 @@
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
@@ -1841,13 +1840,13 @@
         <v>197</v>
       </c>
       <c r="F32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1858,7 +1857,7 @@
         <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
@@ -1868,13 +1867,13 @@
         <v>197</v>
       </c>
       <c r="F33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1885,7 +1884,7 @@
         <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
@@ -1895,13 +1894,13 @@
         <v>197</v>
       </c>
       <c r="F34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1912,7 +1911,7 @@
         <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
@@ -1922,13 +1921,13 @@
         <v>197</v>
       </c>
       <c r="F35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1939,7 +1938,7 @@
         <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
@@ -1949,13 +1948,13 @@
         <v>197</v>
       </c>
       <c r="F36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1966,7 +1965,7 @@
         <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
@@ -1976,13 +1975,13 @@
         <v>197</v>
       </c>
       <c r="F37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1993,7 +1992,7 @@
         <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
@@ -2003,13 +2002,13 @@
         <v>197</v>
       </c>
       <c r="F38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2020,7 +2019,7 @@
         <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
@@ -2030,13 +2029,13 @@
         <v>197</v>
       </c>
       <c r="F39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2047,7 +2046,7 @@
         <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
@@ -2057,13 +2056,13 @@
         <v>197</v>
       </c>
       <c r="F40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2074,7 +2073,7 @@
         <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
@@ -2084,13 +2083,13 @@
         <v>197</v>
       </c>
       <c r="F41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2101,7 +2100,7 @@
         <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
@@ -2111,13 +2110,13 @@
         <v>197</v>
       </c>
       <c r="F42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2128,7 +2127,7 @@
         <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
@@ -2138,13 +2137,13 @@
         <v>197</v>
       </c>
       <c r="F43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2155,7 +2154,7 @@
         <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
@@ -2165,13 +2164,13 @@
         <v>197</v>
       </c>
       <c r="F44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2182,7 +2181,7 @@
         <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
@@ -2192,13 +2191,13 @@
         <v>197</v>
       </c>
       <c r="F45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2209,7 +2208,7 @@
         <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
@@ -2219,13 +2218,13 @@
         <v>197</v>
       </c>
       <c r="F46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2236,7 +2235,7 @@
         <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
@@ -2246,13 +2245,13 @@
         <v>197</v>
       </c>
       <c r="F47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2263,7 +2262,7 @@
         <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
@@ -2273,13 +2272,13 @@
         <v>197</v>
       </c>
       <c r="F48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2290,7 +2289,7 @@
         <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
@@ -2300,13 +2299,13 @@
         <v>197</v>
       </c>
       <c r="F49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2317,7 +2316,7 @@
         <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
@@ -2327,13 +2326,13 @@
         <v>197</v>
       </c>
       <c r="F50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2344,7 +2343,7 @@
         <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
@@ -2354,13 +2353,13 @@
         <v>197</v>
       </c>
       <c r="F51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2371,7 +2370,7 @@
         <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
@@ -2381,13 +2380,13 @@
         <v>197</v>
       </c>
       <c r="F52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2398,7 +2397,7 @@
         <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
@@ -2408,13 +2407,13 @@
         <v>197</v>
       </c>
       <c r="F53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2425,7 +2424,7 @@
         <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
@@ -2435,13 +2434,13 @@
         <v>197</v>
       </c>
       <c r="F54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2452,7 +2451,7 @@
         <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
@@ -2462,13 +2461,13 @@
         <v>197</v>
       </c>
       <c r="F55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2479,7 +2478,7 @@
         <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
@@ -2489,13 +2488,13 @@
         <v>197</v>
       </c>
       <c r="F56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2506,7 +2505,7 @@
         <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
@@ -2516,13 +2515,13 @@
         <v>197</v>
       </c>
       <c r="F57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2533,7 +2532,7 @@
         <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
@@ -2543,13 +2542,13 @@
         <v>197</v>
       </c>
       <c r="F58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2560,7 +2559,7 @@
         <v>114</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
@@ -2570,13 +2569,13 @@
         <v>197</v>
       </c>
       <c r="F59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2587,7 +2586,7 @@
         <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
@@ -2597,13 +2596,13 @@
         <v>197</v>
       </c>
       <c r="F60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2614,7 +2613,7 @@
         <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
@@ -2624,13 +2623,13 @@
         <v>197</v>
       </c>
       <c r="F61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2641,7 +2640,7 @@
         <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
@@ -2651,13 +2650,13 @@
         <v>197</v>
       </c>
       <c r="F62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2668,7 +2667,7 @@
         <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
@@ -2678,13 +2677,13 @@
         <v>197</v>
       </c>
       <c r="F63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2695,7 +2694,7 @@
         <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
@@ -2705,13 +2704,13 @@
         <v>197</v>
       </c>
       <c r="F64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2722,7 +2721,7 @@
         <v>126</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
@@ -2732,13 +2731,13 @@
         <v>197</v>
       </c>
       <c r="F65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2749,7 +2748,7 @@
         <v>128</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
@@ -2759,13 +2758,13 @@
         <v>197</v>
       </c>
       <c r="F66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2776,7 +2775,7 @@
         <v>130</v>
       </c>
       <c r="C67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D67">
         <f t="shared" si="0"/>
@@ -2786,13 +2785,13 @@
         <v>197</v>
       </c>
       <c r="F67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2803,7 +2802,7 @@
         <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68">
         <f t="shared" ref="D68:D101" si="1">D67+1</f>
@@ -2813,13 +2812,13 @@
         <v>197</v>
       </c>
       <c r="F68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2830,7 +2829,7 @@
         <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69">
         <f t="shared" si="1"/>
@@ -2840,13 +2839,13 @@
         <v>197</v>
       </c>
       <c r="F69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2857,7 +2856,7 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
@@ -2867,13 +2866,13 @@
         <v>197</v>
       </c>
       <c r="F70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2884,7 +2883,7 @@
         <v>137</v>
       </c>
       <c r="C71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71">
         <f t="shared" si="1"/>
@@ -2894,13 +2893,13 @@
         <v>197</v>
       </c>
       <c r="F71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -2911,7 +2910,7 @@
         <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72">
         <f t="shared" si="1"/>
@@ -2921,13 +2920,13 @@
         <v>197</v>
       </c>
       <c r="F72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2938,7 +2937,7 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D73">
         <f t="shared" si="1"/>
@@ -2948,13 +2947,13 @@
         <v>197</v>
       </c>
       <c r="F73" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2965,7 +2964,7 @@
         <v>142</v>
       </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D74">
         <f t="shared" si="1"/>
@@ -2975,13 +2974,13 @@
         <v>197</v>
       </c>
       <c r="F74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -2992,7 +2991,7 @@
         <v>144</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D75">
         <f t="shared" si="1"/>
@@ -3002,13 +3001,13 @@
         <v>197</v>
       </c>
       <c r="F75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -3019,7 +3018,7 @@
         <v>146</v>
       </c>
       <c r="C76" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D76">
         <f t="shared" si="1"/>
@@ -3029,13 +3028,13 @@
         <v>197</v>
       </c>
       <c r="F76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -3046,7 +3045,7 @@
         <v>148</v>
       </c>
       <c r="C77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D77">
         <f t="shared" si="1"/>
@@ -3056,13 +3055,13 @@
         <v>197</v>
       </c>
       <c r="F77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -3073,7 +3072,7 @@
         <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D78">
         <f t="shared" si="1"/>
@@ -3083,13 +3082,13 @@
         <v>197</v>
       </c>
       <c r="F78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -3100,7 +3099,7 @@
         <v>152</v>
       </c>
       <c r="C79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D79">
         <f t="shared" si="1"/>
@@ -3110,13 +3109,13 @@
         <v>197</v>
       </c>
       <c r="F79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -3127,7 +3126,7 @@
         <v>41</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D80">
         <f t="shared" si="1"/>
@@ -3137,13 +3136,13 @@
         <v>197</v>
       </c>
       <c r="F80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -3154,7 +3153,7 @@
         <v>155</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D81">
         <f t="shared" si="1"/>
@@ -3164,13 +3163,13 @@
         <v>197</v>
       </c>
       <c r="F81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -3181,7 +3180,7 @@
         <v>157</v>
       </c>
       <c r="C82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D82">
         <f t="shared" si="1"/>
@@ -3191,13 +3190,13 @@
         <v>197</v>
       </c>
       <c r="F82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -3208,7 +3207,7 @@
         <v>159</v>
       </c>
       <c r="C83" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D83">
         <f t="shared" si="1"/>
@@ -3218,13 +3217,13 @@
         <v>197</v>
       </c>
       <c r="F83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -3235,7 +3234,7 @@
         <v>161</v>
       </c>
       <c r="C84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D84">
         <f t="shared" si="1"/>
@@ -3245,13 +3244,13 @@
         <v>197</v>
       </c>
       <c r="F84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -3262,7 +3261,7 @@
         <v>163</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D85">
         <f t="shared" si="1"/>
@@ -3272,13 +3271,13 @@
         <v>197</v>
       </c>
       <c r="F85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -3289,7 +3288,7 @@
         <v>102</v>
       </c>
       <c r="C86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D86">
         <f t="shared" si="1"/>
@@ -3299,13 +3298,13 @@
         <v>197</v>
       </c>
       <c r="F86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3316,7 +3315,7 @@
         <v>166</v>
       </c>
       <c r="C87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D87">
         <f t="shared" si="1"/>
@@ -3326,13 +3325,13 @@
         <v>197</v>
       </c>
       <c r="F87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3343,7 +3342,7 @@
         <v>168</v>
       </c>
       <c r="C88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D88">
         <f t="shared" si="1"/>
@@ -3353,13 +3352,13 @@
         <v>197</v>
       </c>
       <c r="F88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -3370,7 +3369,7 @@
         <v>170</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D89">
         <f t="shared" si="1"/>
@@ -3380,13 +3379,13 @@
         <v>197</v>
       </c>
       <c r="F89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -3397,7 +3396,7 @@
         <v>172</v>
       </c>
       <c r="C90" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D90">
         <f t="shared" si="1"/>
@@ -3407,13 +3406,13 @@
         <v>197</v>
       </c>
       <c r="F90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -3424,7 +3423,7 @@
         <v>174</v>
       </c>
       <c r="C91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D91">
         <f t="shared" si="1"/>
@@ -3434,13 +3433,13 @@
         <v>197</v>
       </c>
       <c r="F91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -3451,7 +3450,7 @@
         <v>176</v>
       </c>
       <c r="C92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D92">
         <f t="shared" si="1"/>
@@ -3461,13 +3460,13 @@
         <v>197</v>
       </c>
       <c r="F92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -3478,7 +3477,7 @@
         <v>178</v>
       </c>
       <c r="C93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D93">
         <f t="shared" si="1"/>
@@ -3488,13 +3487,13 @@
         <v>197</v>
       </c>
       <c r="F93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -3505,7 +3504,7 @@
         <v>180</v>
       </c>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D94">
         <f t="shared" si="1"/>
@@ -3515,13 +3514,13 @@
         <v>197</v>
       </c>
       <c r="F94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -3532,7 +3531,7 @@
         <v>181</v>
       </c>
       <c r="C95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D95">
         <f t="shared" si="1"/>
@@ -3542,13 +3541,13 @@
         <v>197</v>
       </c>
       <c r="F95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -3559,7 +3558,7 @@
         <v>183</v>
       </c>
       <c r="C96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D96">
         <f t="shared" si="1"/>
@@ -3569,13 +3568,13 @@
         <v>197</v>
       </c>
       <c r="F96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -3586,7 +3585,7 @@
         <v>185</v>
       </c>
       <c r="C97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D97">
         <f t="shared" si="1"/>
@@ -3596,13 +3595,13 @@
         <v>197</v>
       </c>
       <c r="F97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -3613,7 +3612,7 @@
         <v>187</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D98">
         <f t="shared" si="1"/>
@@ -3623,13 +3622,13 @@
         <v>197</v>
       </c>
       <c r="F98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -3640,7 +3639,7 @@
         <v>189</v>
       </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D99">
         <f t="shared" si="1"/>
@@ -3650,13 +3649,13 @@
         <v>197</v>
       </c>
       <c r="F99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -3667,7 +3666,7 @@
         <v>191</v>
       </c>
       <c r="C100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D100">
         <f t="shared" si="1"/>
@@ -3677,13 +3676,13 @@
         <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3694,7 +3693,7 @@
         <v>193</v>
       </c>
       <c r="C101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D101">
         <f t="shared" si="1"/>
@@ -3704,13 +3703,13 @@
         <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
